--- a/secuirity_case/ffuf/001.xlsx
+++ b/secuirity_case/ffuf/001.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="16400"/>
+    <workbookView windowHeight="15600"/>
   </bookViews>
   <sheets>
     <sheet name="Template" sheetId="1" r:id="rId1"/>
@@ -44,20 +44,51 @@
   </si>
   <si>
     <t xml:space="preserve">1. FFUF tool installed on the machine
-2. Wordlist containing SQL injection payloads (e.g., /Users/md.abdullahalrumy/Documents/wordlists/SecLists-master/)
-3. 
+2. Wordlist containing directory shower payloads (e.g., /Users/md.abdullahalrumy/Documents/wordlists/SecLists-master/)
+3. Target web application URL with parameters to fuzz
 </t>
   </si>
   <si>
     <t>discover hidden files and directories on web servers</t>
   </si>
   <si>
-    <t>1. Open the app
-2. check the data source on live
-3. check the data on my own card</t>
+    <r>
+      <t xml:space="preserve">1. Open a terminal on the testing machine.
+2. Navigate to the directory where FFUF is installed or add it to your system's PATH.
+3. Craft the FFUF command to fuzz the target URL parameters:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> ./ffuf -w common.txt -u http://127.0.0.2:8000/FUZZ
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+This command will:
+Use the common.txt file containing directory name payloads
+Replace the FUZZ keyword with each payload from the wordlist
+Send the payloads as the value of the q parameter in the URL http://127.0.0.0/FUZZ
+4. Monitor the FFUF output for any responses that indicate a successful as finiding a hiddendirectories.
+5. If any suspicious responses are observed, further investigate the identified parameter to confirm finding hidden directory.
+</t>
+    </r>
   </si>
   <si>
-    <t>****</t>
+    <t xml:space="preserve">FFUF should successfully fuzz the target URL parameter with the provided directory name as a payload with the help of wordlist. If any of the payloads trigger a response indicating a potential hidden files showing vulnerability, the test case is considered successful, and the identified parameter should be investigated further.
+</t>
   </si>
   <si>
     <t>N/A</t>
@@ -71,12 +102,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
   </numFmts>
-  <fonts count="27">
+  <fonts count="28">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -123,10 +154,11 @@
       <charset val="134"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -137,19 +169,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color theme="1"/>
       <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -164,14 +187,7 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -184,30 +200,7 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -223,7 +216,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -238,9 +238,47 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -253,25 +291,25 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF0070C0"/>
       <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="34">
@@ -295,13 +333,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -319,6 +363,108 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -331,55 +477,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -391,85 +495,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -560,11 +598,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -573,7 +617,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -589,47 +633,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -652,156 +655,191 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="19" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="30" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1692,7 +1730,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="C5" sqref="C5"/>
+      <selection pane="bottomLeft" activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.4375" defaultRowHeight="15" customHeight="1"/>
@@ -1807,7 +1845,7 @@
       <c r="Y3" s="15"/>
       <c r="Z3" s="15"/>
     </row>
-    <row r="4" ht="179" customHeight="1" spans="1:26">
+    <row r="4" ht="409" customHeight="1" spans="1:26">
       <c r="A4" s="7" t="s">
         <v>8</v>
       </c>

--- a/secuirity_case/ffuf/001.xlsx
+++ b/secuirity_case/ffuf/001.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="15600"/>
+    <workbookView windowHeight="15660"/>
   </bookViews>
   <sheets>
     <sheet name="Template" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="28">
   <si>
     <t xml:space="preserve">Scenario: FFUF </t>
   </si>
@@ -40,22 +40,27 @@
     <t>Comments</t>
   </si>
   <si>
-    <t>SYM1419-001</t>
+    <t>SYM_1419_001_FFUF</t>
   </si>
   <si>
     <t xml:space="preserve">1. FFUF tool installed on the machine
-2. Wordlist containing directory shower payloads (e.g., /Users/md.abdullahalrumy/Documents/wordlists/SecLists-master/)
+2. Wordlist containing directory shower payloads (e.g., /Users/md.abdullahalrumy/Documents/wordlists/SecLists-master/Discovery/Web-Content/directory-list-2.3-medium)
 3. Target web application URL with parameters to fuzz
 </t>
   </si>
   <si>
-    <t>discover hidden files and directories on web servers</t>
+    <t>discover hidden files and directories on symlexvpn website</t>
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">1. Open a terminal on the testing machine.
-2. Navigate to the directory where FFUF is installed or add it to your system's PATH.
-3. Craft the FFUF command to fuzz the target URL parameters:
+2. Craft the FFUF command to fuzz the target URL parameters:
 </t>
     </r>
     <r>
@@ -66,7 +71,76 @@
         <rFont val="Calibri"/>
         <charset val="134"/>
       </rPr>
-      <t xml:space="preserve"> ./ffuf -w common.txt -u http://127.0.0.2:8000/FUZZ
+      <t xml:space="preserve"> ./fuf -w ./Documets/wordlists/SecLists-master/Discovery/Web-Content/directory-list-2.3-medium.txt:FUZZ1 -w web-extensions.txt:FUZZ2 -u http://symlexvpn.com/FUZZ1FUZZ2
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+This command will:
+Use the common.txt file containing directory name payloads
+Replace the FUZZ1, FUZZ2 keyword with each payload from the wordlist
+Send the payloads as the value of the q parameter in the URL https://symlexvpn.coom/FUZZ1FUZZ2
+3. Monitor the FFUF output for any responses that indicate a successful as finiding a hiddendirectories.
+4. If any suspicious responses are observed, further investigate the identified parameter to confirm finding hidden directory.
+</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">FFUF should successfully fuzz the target URL parameter with the provided directory name as a payload with the help of wordlist. If any of the payloads trigger a response indicating a potential hidden files showing vulnerability, the test case is considered successful, and the identified parameter should be investigated further.
+</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>file variation
+==========
+directory-list-2.3-big
+directory-list-2.3-small
+directory-list-2.3-medium
+directory-list-lowercase-2.3-big.txt
+directory-list-lowercase-2.3-medium
+directory-list-lowercase-2.3-small.txt</t>
+  </si>
+  <si>
+    <t>SYM_1419_002_FFUF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. FFUF tool installed on the machine
+2. Wordlist containing directory shower payloads (e.g., /Users/md.abdullahalrumy/Documents/wordlists/SecLists-master/Password/Leaked-Databases/hak5.txt)
+3. Target web application URL with parameters to fuzz
+</t>
+  </si>
+  <si>
+    <t>Brute-force login pages to find valid username and password combinations</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">1. Open a terminal on the testing machine.
+2. Craft the FFUF command to fuzz the target URL parameters:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">ffuf -w ./Documets/wordlists/SecLists-master/Password/Leaked-Databases/hak5.txt:FUZZ -u https://adminportal.symlexvpn.com/vpnadmin/index.php/login/processlogin -X POST -d "userName=rumyqa&amp;userPassword=FUZZ&amp;commit=Login" -H "Content-Type: application/x-www-form-urlencoded" -mc 200
 </t>
     </r>
     <r>
@@ -80,21 +154,109 @@
 This command will:
 Use the common.txt file containing directory name payloads
 Replace the FUZZ keyword with each payload from the wordlist
-Send the payloads as the value of the q parameter in the URL http://127.0.0.0/FUZZ
-4. Monitor the FFUF output for any responses that indicate a successful as finiding a hiddendirectories.
-5. If any suspicious responses are observed, further investigate the identified parameter to confirm finding hidden directory.
+Send the payloads as the value of the q parameter in the URL https://symlexvpn.coom/FUZZ
+3. Monitor the FFUF output for any responses that indicate a successful as finiding a hiddendirectories.
+4. If any suspicious responses are observed, further investigate the identified parameter to confirm finding hidden directory.
 </t>
     </r>
   </si>
   <si>
-    <t xml:space="preserve">FFUF should successfully fuzz the target URL parameter with the provided directory name as a payload with the help of wordlist. If any of the payloads trigger a response indicating a potential hidden files showing vulnerability, the test case is considered successful, and the identified parameter should be investigated further.
+    <t xml:space="preserve">FFUF should successfully fuzz the target URL parameter with the provided directory name as a payload with the help of wordlist. If any of the payloads trigger a response indicating a potential login vulnerability, the test case is considered successful, and the identified parameter should be investigated further.
 </t>
   </si>
   <si>
-    <t>N/A</t>
+    <t>SYM_1419_003_FFUF</t>
   </si>
   <si>
-    <t>*****</t>
+    <t>Fuzz GET parameters to discover hidden parameters and test for injection flaws</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">1. Open a terminal on the testing machine.
+2. Craft the FFUF command to fuzz the target URL parameters:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">ffuf -w  ./Documets/wordlists/SecLists-master/Discovery/Web-Content/common.txt:FUZZ -u https://symlexvpn.com/FUZZ
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+This command will:
+Use the common.txt file containing directory name payloads
+Replace the FUZZ keyword with each payload from the wordlist
+Send the payloads as the value of the q parameter in the URL https://symlexvpn.coom/FUZZ
+3. Monitor the FFUF output for any responses that indicate a successful as finiding a hiddendirectories.
+4. If any suspicious responses are observed, further investigate the identified parameter to confirm finding hidden directory.
+</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">FFUF should successfully fuzz the target URL parameter with the provided directory name as a payload with the help of wordlist. If any of the payloads trigger a response indicating a potential vulnerability, the test case is considered successful, and the identified parameter should be investigated further.
+</t>
+  </si>
+  <si>
+    <t>SYM_1419_004_FFUF</t>
+  </si>
+  <si>
+    <t>Identify areas of the application prone to crashes or failures when presented with invalid input with the help of brute forcing of POST method</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1. Open a terminal on the testing machine.
+2. Craft the FFUF command to fuzz the target URL parameters:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">ffuf -w ./Documets/wordlists/SecLists-master/Password/Leaked-Databases/hak5.txt:FUZZ -u https://adminportal.symlexvpn.com/vpnadmin/index.php/login/processlogin -X POST -d "userName=rumyqa&amp;userPassword=FUZZ&amp;commit=Login" -H "Content-Type: application/x-www-form-urlencoded" -mc 200
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+This command will:
+Use the common.txt file containing directory name payloads
+Replace the FUZZ keyword with each payload from the wordlist
+Send the payloads as the value of the q parameter in the URL https://symlexvpn.coom/FUZZ
+3. Monitor the FFUF output for any responses that indicate a successful as finiding a hiddendirectories.
+4. If any crashes are observed, further investigate the identified parameter to confirm finding related to crashes.
+</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">FFUF should successfully fuzz the target URL parameter with the provided value of parameters as a payload with the help of wordlist. If any of the payloads trigger a response indicating a potential prone to crashes, the test case is considered successful, and the identified parameter should be investigated further.
+</t>
   </si>
 </sst>
 </file>
@@ -102,10 +264,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
   </numFmts>
   <fonts count="28">
     <font>
@@ -169,18 +331,34 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -207,9 +385,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -217,13 +394,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -237,8 +407,30 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -251,49 +443,19 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -333,7 +495,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -345,25 +561,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -375,19 +627,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -399,73 +639,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -483,31 +657,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -598,17 +760,41 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
+      <right style="double">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
+      <top style="double">
         <color rgb="FF3F3F3F"/>
       </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -638,25 +824,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -666,21 +843,6 @@
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -698,145 +860,145 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="30" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -846,11 +1008,17 @@
   <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -860,10 +1028,10 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -872,9 +1040,13 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1728,9 +1900,9 @@
   <dimension ref="A1:Z990"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="3" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="B4" sqref="B4"/>
+      <selection pane="bottomLeft" activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.4375" defaultRowHeight="15" customHeight="1"/>
@@ -1845,7 +2017,7 @@
       <c r="Y3" s="15"/>
       <c r="Z3" s="15"/>
     </row>
-    <row r="4" ht="409" customHeight="1" spans="1:26">
+    <row r="4" ht="397" customHeight="1" spans="1:26">
       <c r="A4" s="7" t="s">
         <v>8</v>
       </c>
@@ -1887,14 +2059,24 @@
       <c r="Y4" s="16"/>
       <c r="Z4" s="16"/>
     </row>
-    <row r="5" ht="15.75" customHeight="1" spans="1:26">
-      <c r="A5" s="8"/>
-      <c r="B5" s="9"/>
-      <c r="C5" s="9"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="9"/>
-      <c r="F5" s="9"/>
-      <c r="G5" s="9"/>
+    <row r="5" ht="396" customHeight="1" spans="1:26">
+      <c r="A5" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="F5" s="8"/>
+      <c r="G5" s="8"/>
       <c r="H5" s="16"/>
       <c r="I5" s="16"/>
       <c r="J5" s="16"/>
@@ -1915,14 +2097,24 @@
       <c r="Y5" s="16"/>
       <c r="Z5" s="16"/>
     </row>
-    <row r="6" ht="15.75" customHeight="1" spans="1:26">
-      <c r="A6" s="8"/>
-      <c r="B6" s="9"/>
-      <c r="C6" s="9"/>
-      <c r="D6" s="9"/>
-      <c r="E6" s="9"/>
-      <c r="F6" s="9"/>
-      <c r="G6" s="9"/>
+    <row r="6" ht="349" customHeight="1" spans="1:26">
+      <c r="A6" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="F6" s="8"/>
+      <c r="G6" s="8"/>
       <c r="H6" s="16"/>
       <c r="I6" s="16"/>
       <c r="J6" s="16"/>
@@ -1943,14 +2135,24 @@
       <c r="Y6" s="16"/>
       <c r="Z6" s="16"/>
     </row>
-    <row r="7" ht="15.75" customHeight="1" spans="1:26">
-      <c r="A7" s="8"/>
-      <c r="B7" s="9"/>
-      <c r="C7" s="9"/>
-      <c r="D7" s="9"/>
-      <c r="E7" s="9"/>
-      <c r="F7" s="9"/>
-      <c r="G7" s="9"/>
+    <row r="7" ht="409" customHeight="1" spans="1:26">
+      <c r="A7" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="F7" s="8"/>
+      <c r="G7" s="8"/>
       <c r="H7" s="16"/>
       <c r="I7" s="16"/>
       <c r="J7" s="16"/>
@@ -1972,13 +2174,13 @@
       <c r="Z7" s="16"/>
     </row>
     <row r="8" ht="15.75" customHeight="1" spans="1:26">
-      <c r="A8" s="8"/>
-      <c r="B8" s="9"/>
-      <c r="C8" s="9"/>
-      <c r="D8" s="9"/>
-      <c r="E8" s="9"/>
-      <c r="F8" s="9"/>
-      <c r="G8" s="9"/>
+      <c r="A8" s="9"/>
+      <c r="B8" s="8"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="8"/>
       <c r="H8" s="16"/>
       <c r="I8" s="16"/>
       <c r="J8" s="16"/>

--- a/secuirity_case/ffuf/001.xlsx
+++ b/secuirity_case/ffuf/001.xlsx
@@ -4,17 +4,17 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="15660"/>
+    <workbookView windowHeight="17660"/>
   </bookViews>
   <sheets>
-    <sheet name="Template" sheetId="1" r:id="rId1"/>
+    <sheet name="001" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="45">
   <si>
     <t xml:space="preserve">Scenario: FFUF </t>
   </si>
@@ -222,6 +222,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">1. Open a terminal on the testing machine.
 2. Craft the FFUF command to fuzz the target URL parameters:
 </t>
@@ -258,6 +264,57 @@
     <t xml:space="preserve">FFUF should successfully fuzz the target URL parameter with the provided value of parameters as a payload with the help of wordlist. If any of the payloads trigger a response indicating a potential prone to crashes, the test case is considered successful, and the identified parameter should be investigated further.
 </t>
   </si>
+  <si>
+    <t>SYM_1419_005_FFUF</t>
+  </si>
+  <si>
+    <t>Discover virtual hosts without DNS records by fuzzing the Host header with the help of ffuf tools</t>
+  </si>
+  <si>
+    <t>SYM_1419_006_FFUF</t>
+  </si>
+  <si>
+    <t>Fuzz file extensions to find hidden files with the help of ffuf tools</t>
+  </si>
+  <si>
+    <t>SYM_1419_007_FFUF</t>
+  </si>
+  <si>
+    <t>Brute-force file uploads to test for vulnerabilities with the help of ffuf tools</t>
+  </si>
+  <si>
+    <t>SYM_1419_008_FFUF</t>
+  </si>
+  <si>
+    <t>Fuzz for different file types during uploads with the help of ffuf tools</t>
+  </si>
+  <si>
+    <t>SYM_1419_009_FFUF</t>
+  </si>
+  <si>
+    <t>SYM_1419_010_FFUF</t>
+  </si>
+  <si>
+    <t>Fuzz file content to test validation mechanisms with the help of ffuf tools</t>
+  </si>
+  <si>
+    <t>SYM_1419_011_FFUF</t>
+  </si>
+  <si>
+    <t>Discover subdomains by fuzzing the Host header with the help of ffuf tools</t>
+  </si>
+  <si>
+    <t>SYM_1419_012_FFUF</t>
+  </si>
+  <si>
+    <t>Test for file overwrite vulnerabilities with the help of ffuf tools</t>
+  </si>
+  <si>
+    <t>SYM_1419_013_FFUF</t>
+  </si>
+  <si>
+    <t>Fuzz URL paths to find hidden directories and files with the help of ffuf tools</t>
+  </si>
 </sst>
 </file>
 
@@ -265,9 +322,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="28">
     <font>
@@ -303,9 +360,8 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <charset val="134"/>
     </font>
@@ -325,53 +381,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -393,7 +410,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -409,9 +441,55 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -422,22 +500,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -451,17 +516,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -495,6 +551,48 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -507,7 +605,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -519,7 +659,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -531,7 +683,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -543,133 +725,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -760,6 +816,39 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -771,15 +860,6 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -801,24 +881,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -846,159 +913,148 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="10" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="8" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1031,10 +1087,10 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1674,6 +1730,11 @@
       <tableStyleElement type="secondRowStripe" dxfId="52"/>
     </tableStyle>
   </tableStyles>
+  <colors>
+    <mruColors>
+      <color rgb="002FFFAD"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1683,7 +1744,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table_1" displayName="Table_1" ref="A3:G8">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table_1" displayName="Table_1" ref="A3:G16">
   <tableColumns count="7">
     <tableColumn id="1" name="Test Case ID" dataDxfId="0"/>
     <tableColumn id="2" name="Prerequisites" dataDxfId="1"/>
@@ -1899,10 +1960,10 @@
   </sheetPr>
   <dimension ref="A1:Z990"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="C7" sqref="C7"/>
+      <selection pane="bottomLeft" activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.4375" defaultRowHeight="15" customHeight="1"/>
@@ -2059,7 +2120,7 @@
       <c r="Y4" s="16"/>
       <c r="Z4" s="16"/>
     </row>
-    <row r="5" ht="396" customHeight="1" spans="1:26">
+    <row r="5" ht="408" customHeight="1" spans="1:26">
       <c r="A5" s="7" t="s">
         <v>15</v>
       </c>
@@ -2173,14 +2234,24 @@
       <c r="Y7" s="16"/>
       <c r="Z7" s="16"/>
     </row>
-    <row r="8" ht="15.75" customHeight="1" spans="1:26">
-      <c r="A8" s="9"/>
-      <c r="B8" s="8"/>
-      <c r="C8" s="8"/>
-      <c r="D8" s="8"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="8"/>
-      <c r="G8" s="8"/>
+    <row r="8" ht="409" customHeight="1" spans="1:26">
+      <c r="A8" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E8" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="F8" s="10"/>
+      <c r="G8" s="10"/>
       <c r="H8" s="16"/>
       <c r="I8" s="16"/>
       <c r="J8" s="16"/>
@@ -2201,12 +2272,22 @@
       <c r="Y8" s="16"/>
       <c r="Z8" s="16"/>
     </row>
-    <row r="9" ht="15.75" customHeight="1" spans="1:26">
-      <c r="A9" s="10"/>
-      <c r="B9" s="10"/>
-      <c r="C9" s="10"/>
-      <c r="D9" s="10"/>
-      <c r="E9" s="10"/>
+    <row r="9" ht="409" customHeight="1" spans="1:26">
+      <c r="A9" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E9" s="10" t="s">
+        <v>27</v>
+      </c>
       <c r="F9" s="10"/>
       <c r="G9" s="10"/>
       <c r="H9" s="17"/>
@@ -2229,12 +2310,22 @@
       <c r="Y9" s="17"/>
       <c r="Z9" s="17"/>
     </row>
-    <row r="10" ht="15.75" customHeight="1" spans="1:26">
-      <c r="A10" s="11"/>
-      <c r="B10" s="10"/>
-      <c r="C10" s="10"/>
-      <c r="D10" s="10"/>
-      <c r="E10" s="10"/>
+    <row r="10" ht="408" customHeight="1" spans="1:26">
+      <c r="A10" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E10" s="10" t="s">
+        <v>27</v>
+      </c>
       <c r="F10" s="10"/>
       <c r="G10" s="10"/>
       <c r="H10" s="17"/>
@@ -2257,14 +2348,24 @@
       <c r="Y10" s="17"/>
       <c r="Z10" s="17"/>
     </row>
-    <row r="11" ht="15.75" customHeight="1" spans="1:26">
-      <c r="A11" s="11"/>
-      <c r="B11" s="11"/>
-      <c r="C11" s="11"/>
-      <c r="D11" s="11"/>
-      <c r="E11" s="11"/>
-      <c r="F11" s="11"/>
-      <c r="G11" s="11"/>
+    <row r="11" ht="408" customHeight="1" spans="1:26">
+      <c r="A11" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="D11" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E11" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="F11" s="10"/>
+      <c r="G11" s="10"/>
       <c r="H11" s="13"/>
       <c r="I11" s="13"/>
       <c r="J11" s="13"/>
@@ -2285,14 +2386,24 @@
       <c r="Y11" s="13"/>
       <c r="Z11" s="13"/>
     </row>
-    <row r="12" ht="15.75" customHeight="1" spans="1:26">
-      <c r="A12" s="11"/>
-      <c r="B12" s="11"/>
-      <c r="C12" s="11"/>
-      <c r="D12" s="11"/>
-      <c r="E12" s="11"/>
-      <c r="F12" s="11"/>
-      <c r="G12" s="11"/>
+    <row r="12" ht="408" customHeight="1" spans="1:26">
+      <c r="A12" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="B12" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C12" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="D12" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E12" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="F12" s="10"/>
+      <c r="G12" s="10"/>
       <c r="H12" s="13"/>
       <c r="I12" s="13"/>
       <c r="J12" s="13"/>
@@ -2313,14 +2424,24 @@
       <c r="Y12" s="13"/>
       <c r="Z12" s="13"/>
     </row>
-    <row r="13" ht="15.75" customHeight="1" spans="1:26">
-      <c r="A13" s="11"/>
-      <c r="B13" s="11"/>
-      <c r="C13" s="11"/>
-      <c r="D13" s="11"/>
-      <c r="E13" s="11"/>
-      <c r="F13" s="11"/>
-      <c r="G13" s="11"/>
+    <row r="13" ht="409" customHeight="1" spans="1:26">
+      <c r="A13" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="B13" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C13" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="D13" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E13" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="F13" s="10"/>
+      <c r="G13" s="10"/>
       <c r="H13" s="13"/>
       <c r="I13" s="13"/>
       <c r="J13" s="13"/>
@@ -2341,14 +2462,24 @@
       <c r="Y13" s="13"/>
       <c r="Z13" s="13"/>
     </row>
-    <row r="14" ht="15.75" customHeight="1" spans="1:26">
-      <c r="A14" s="11"/>
-      <c r="B14" s="11"/>
-      <c r="C14" s="11"/>
-      <c r="D14" s="11"/>
-      <c r="E14" s="11"/>
-      <c r="F14" s="11"/>
-      <c r="G14" s="11"/>
+    <row r="14" ht="409" customHeight="1" spans="1:26">
+      <c r="A14" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="B14" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C14" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="D14" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E14" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="F14" s="10"/>
+      <c r="G14" s="10"/>
       <c r="H14" s="13"/>
       <c r="I14" s="13"/>
       <c r="J14" s="13"/>
@@ -2369,14 +2500,24 @@
       <c r="Y14" s="13"/>
       <c r="Z14" s="13"/>
     </row>
-    <row r="15" ht="15.75" customHeight="1" spans="1:26">
-      <c r="A15" s="11"/>
-      <c r="B15" s="11"/>
-      <c r="C15" s="11"/>
-      <c r="D15" s="11"/>
-      <c r="E15" s="11"/>
-      <c r="F15" s="11"/>
-      <c r="G15" s="11"/>
+    <row r="15" ht="409" customHeight="1" spans="1:26">
+      <c r="A15" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="B15" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C15" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="D15" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E15" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="F15" s="10"/>
+      <c r="G15" s="10"/>
       <c r="H15" s="13"/>
       <c r="I15" s="13"/>
       <c r="J15" s="13"/>
@@ -2397,14 +2538,24 @@
       <c r="Y15" s="13"/>
       <c r="Z15" s="13"/>
     </row>
-    <row r="16" ht="15.75" customHeight="1" spans="1:26">
-      <c r="A16" s="11"/>
-      <c r="B16" s="11"/>
-      <c r="C16" s="11"/>
-      <c r="D16" s="11"/>
-      <c r="E16" s="11"/>
-      <c r="F16" s="11"/>
-      <c r="G16" s="11"/>
+    <row r="16" ht="409" customHeight="1" spans="1:26">
+      <c r="A16" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="B16" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C16" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="D16" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E16" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="F16" s="10"/>
+      <c r="G16" s="10"/>
       <c r="H16" s="13"/>
       <c r="I16" s="13"/>
       <c r="J16" s="13"/>
@@ -2425,7 +2576,7 @@
       <c r="Y16" s="13"/>
       <c r="Z16" s="13"/>
     </row>
-    <row r="17" ht="15.75" customHeight="1" spans="1:26">
+    <row r="17" ht="409" customHeight="1" spans="1:26">
       <c r="A17" s="11"/>
       <c r="B17" s="11"/>
       <c r="C17" s="11"/>
@@ -2481,7 +2632,7 @@
       <c r="Y18" s="13"/>
       <c r="Z18" s="13"/>
     </row>
-    <row r="19" ht="15.75" customHeight="1" spans="1:26">
+    <row r="19" ht="408" customHeight="1" spans="1:26">
       <c r="A19" s="11"/>
       <c r="B19" s="11"/>
       <c r="C19" s="11"/>
@@ -2537,7 +2688,7 @@
       <c r="Y20" s="13"/>
       <c r="Z20" s="13"/>
     </row>
-    <row r="21" ht="15.75" customHeight="1" spans="1:26">
+    <row r="21" ht="409" customHeight="1" spans="1:26">
       <c r="A21" s="11"/>
       <c r="B21" s="11"/>
       <c r="C21" s="11"/>
@@ -2593,7 +2744,7 @@
       <c r="Y22" s="13"/>
       <c r="Z22" s="13"/>
     </row>
-    <row r="23" ht="15.75" customHeight="1" spans="1:26">
+    <row r="23" ht="284" customHeight="1" spans="1:26">
       <c r="A23" s="11"/>
       <c r="B23" s="11"/>
       <c r="C23" s="11"/>
@@ -2649,7 +2800,7 @@
       <c r="Y24" s="13"/>
       <c r="Z24" s="13"/>
     </row>
-    <row r="25" ht="15.75" customHeight="1" spans="1:26">
+    <row r="25" ht="409" customHeight="1" spans="1:26">
       <c r="A25" s="11"/>
       <c r="B25" s="11"/>
       <c r="C25" s="11"/>
@@ -29389,14 +29540,7 @@
       <c r="Y979" s="13"/>
       <c r="Z979" s="13"/>
     </row>
-    <row r="980" ht="15.75" customHeight="1" spans="1:26">
-      <c r="A980" s="11"/>
-      <c r="B980" s="11"/>
-      <c r="C980" s="11"/>
-      <c r="D980" s="11"/>
-      <c r="E980" s="11"/>
-      <c r="F980" s="11"/>
-      <c r="G980" s="11"/>
+    <row r="980" ht="15.75" customHeight="1" spans="8:26">
       <c r="H980" s="13"/>
       <c r="I980" s="13"/>
       <c r="J980" s="13"/>
@@ -29417,14 +29561,7 @@
       <c r="Y980" s="13"/>
       <c r="Z980" s="13"/>
     </row>
-    <row r="981" ht="15.75" customHeight="1" spans="1:26">
-      <c r="A981" s="11"/>
-      <c r="B981" s="11"/>
-      <c r="C981" s="11"/>
-      <c r="D981" s="11"/>
-      <c r="E981" s="11"/>
-      <c r="F981" s="11"/>
-      <c r="G981" s="11"/>
+    <row r="981" ht="15.75" customHeight="1" spans="8:26">
       <c r="H981" s="13"/>
       <c r="I981" s="13"/>
       <c r="J981" s="13"/>
@@ -29445,14 +29582,7 @@
       <c r="Y981" s="13"/>
       <c r="Z981" s="13"/>
     </row>
-    <row r="982" ht="15.75" customHeight="1" spans="1:26">
-      <c r="A982" s="11"/>
-      <c r="B982" s="11"/>
-      <c r="C982" s="11"/>
-      <c r="D982" s="11"/>
-      <c r="E982" s="11"/>
-      <c r="F982" s="11"/>
-      <c r="G982" s="11"/>
+    <row r="982" ht="15.75" customHeight="1" spans="8:26">
       <c r="H982" s="13"/>
       <c r="I982" s="13"/>
       <c r="J982" s="13"/>
@@ -29473,14 +29603,7 @@
       <c r="Y982" s="13"/>
       <c r="Z982" s="13"/>
     </row>
-    <row r="983" ht="15.75" customHeight="1" spans="1:26">
-      <c r="A983" s="11"/>
-      <c r="B983" s="11"/>
-      <c r="C983" s="11"/>
-      <c r="D983" s="11"/>
-      <c r="E983" s="11"/>
-      <c r="F983" s="11"/>
-      <c r="G983" s="11"/>
+    <row r="983" ht="15.75" customHeight="1" spans="8:26">
       <c r="H983" s="13"/>
       <c r="I983" s="13"/>
       <c r="J983" s="13"/>
@@ -29501,14 +29624,7 @@
       <c r="Y983" s="13"/>
       <c r="Z983" s="13"/>
     </row>
-    <row r="984" ht="15.75" customHeight="1" spans="1:26">
-      <c r="A984" s="11"/>
-      <c r="B984" s="11"/>
-      <c r="C984" s="11"/>
-      <c r="D984" s="11"/>
-      <c r="E984" s="11"/>
-      <c r="F984" s="11"/>
-      <c r="G984" s="11"/>
+    <row r="984" ht="15.75" customHeight="1" spans="8:26">
       <c r="H984" s="13"/>
       <c r="I984" s="13"/>
       <c r="J984" s="13"/>
@@ -29529,14 +29645,7 @@
       <c r="Y984" s="13"/>
       <c r="Z984" s="13"/>
     </row>
-    <row r="985" ht="15.75" customHeight="1" spans="1:26">
-      <c r="A985" s="11"/>
-      <c r="B985" s="11"/>
-      <c r="C985" s="11"/>
-      <c r="D985" s="11"/>
-      <c r="E985" s="11"/>
-      <c r="F985" s="11"/>
-      <c r="G985" s="11"/>
+    <row r="985" ht="15.75" customHeight="1" spans="8:26">
       <c r="H985" s="13"/>
       <c r="I985" s="13"/>
       <c r="J985" s="13"/>
@@ -29557,14 +29666,7 @@
       <c r="Y985" s="13"/>
       <c r="Z985" s="13"/>
     </row>
-    <row r="986" ht="15.75" customHeight="1" spans="1:26">
-      <c r="A986" s="11"/>
-      <c r="B986" s="11"/>
-      <c r="C986" s="11"/>
-      <c r="D986" s="11"/>
-      <c r="E986" s="11"/>
-      <c r="F986" s="11"/>
-      <c r="G986" s="11"/>
+    <row r="986" ht="15.75" customHeight="1" spans="8:26">
       <c r="H986" s="13"/>
       <c r="I986" s="13"/>
       <c r="J986" s="13"/>
@@ -29585,14 +29687,7 @@
       <c r="Y986" s="13"/>
       <c r="Z986" s="13"/>
     </row>
-    <row r="987" ht="15.75" customHeight="1" spans="1:26">
-      <c r="A987" s="11"/>
-      <c r="B987" s="11"/>
-      <c r="C987" s="11"/>
-      <c r="D987" s="11"/>
-      <c r="E987" s="11"/>
-      <c r="F987" s="11"/>
-      <c r="G987" s="11"/>
+    <row r="987" ht="15.75" customHeight="1" spans="8:26">
       <c r="H987" s="13"/>
       <c r="I987" s="13"/>
       <c r="J987" s="13"/>
@@ -29613,14 +29708,7 @@
       <c r="Y987" s="13"/>
       <c r="Z987" s="13"/>
     </row>
-    <row r="988" ht="15.75" customHeight="1" spans="1:26">
-      <c r="A988" s="11"/>
-      <c r="B988" s="11"/>
-      <c r="C988" s="11"/>
-      <c r="D988" s="11"/>
-      <c r="E988" s="11"/>
-      <c r="F988" s="11"/>
-      <c r="G988" s="11"/>
+    <row r="988" ht="15.75" customHeight="1" spans="8:26">
       <c r="H988" s="13"/>
       <c r="I988" s="13"/>
       <c r="J988" s="13"/>
@@ -29641,14 +29729,7 @@
       <c r="Y988" s="13"/>
       <c r="Z988" s="13"/>
     </row>
-    <row r="989" ht="15.75" customHeight="1" spans="1:26">
-      <c r="A989" s="11"/>
-      <c r="B989" s="11"/>
-      <c r="C989" s="11"/>
-      <c r="D989" s="11"/>
-      <c r="E989" s="11"/>
-      <c r="F989" s="11"/>
-      <c r="G989" s="11"/>
+    <row r="989" ht="15.75" customHeight="1" spans="8:26">
       <c r="H989" s="13"/>
       <c r="I989" s="13"/>
       <c r="J989" s="13"/>
@@ -29669,14 +29750,7 @@
       <c r="Y989" s="13"/>
       <c r="Z989" s="13"/>
     </row>
-    <row r="990" ht="15.75" customHeight="1" spans="1:26">
-      <c r="A990" s="11"/>
-      <c r="B990" s="11"/>
-      <c r="C990" s="11"/>
-      <c r="D990" s="11"/>
-      <c r="E990" s="11"/>
-      <c r="F990" s="11"/>
-      <c r="G990" s="11"/>
+    <row r="990" ht="15.75" customHeight="1" spans="8:26">
       <c r="H990" s="13"/>
       <c r="I990" s="13"/>
       <c r="J990" s="13"/>
@@ -29702,7 +29776,7 @@
     <mergeCell ref="A1:G2"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F5:F8">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F8 F9 F10 F11 F12 F13 F14 F15 F16 F5:F7">
       <formula1>"Pass,Fail"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F4">
